--- a/data/trans_bre/P2A_enfcro_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2A_enfcro_R-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>11.80277653735521</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6.444225100115386</v>
+        <v>6.444225100115403</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3022144554335356</v>
@@ -649,7 +649,7 @@
         <v>0.2337144197455585</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1719001783147648</v>
+        <v>0.1719001783147653</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.748311470519928</v>
+        <v>8.694380491661146</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.862403716294023</v>
+        <v>3.577537645283818</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.430801797387939</v>
+        <v>6.654366676324871</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.633076763825561</v>
+        <v>1.427499375345282</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1590679503903563</v>
+        <v>0.180270943693165</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0637471439668191</v>
+        <v>0.05628360989673677</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.121720490384909</v>
+        <v>0.1254130582549109</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.03980631538045277</v>
+        <v>0.03580908771079414</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>19.19497976885085</v>
+        <v>19.02371412978152</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.54608863790887</v>
+        <v>14.00267160842314</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17.39592908643062</v>
+        <v>17.10775525554909</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.56708675401586</v>
+        <v>10.89061266405445</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4489517316695284</v>
+        <v>0.4437126578713741</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2629999563963507</v>
+        <v>0.2469924093886232</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3660707568002391</v>
+        <v>0.3601441517897079</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3361661883094608</v>
+        <v>0.3186972155304089</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>11.97874432451579</v>
+        <v>12.48643070503242</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>12.4485988623997</v>
+        <v>12.36009815823571</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10.69546243497978</v>
+        <v>10.68895344112463</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.879561086627965</v>
+        <v>4.184718339080394</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2530509903088737</v>
+        <v>0.2593842724661002</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2294709680776097</v>
+        <v>0.225411324332318</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2049420824529922</v>
+        <v>0.2067732913620851</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1041503758091355</v>
+        <v>0.1115306422165408</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>21.66308830548513</v>
+        <v>21.71477627162069</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>21.12434937854151</v>
+        <v>21.00210322177783</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>19.34545665591606</v>
+        <v>19.60537874637439</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12.66723924211682</v>
+        <v>12.98477090740356</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5114612616700018</v>
+        <v>0.5111192412170702</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.428312972486622</v>
+        <v>0.4234220393652975</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4180070242719331</v>
+        <v>0.4235765956016176</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3973429747578974</v>
+        <v>0.3979231630410546</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>9.536852351250623</v>
+        <v>9.774912722837351</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>12.22258429161629</v>
+        <v>11.97035774799756</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.401437282622926</v>
+        <v>5.550326124910863</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.387092489822573</v>
+        <v>-0.9900484696399453</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2010692736721341</v>
+        <v>0.2046472096053959</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2388574896536957</v>
+        <v>0.2371786546626951</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1265862586241183</v>
+        <v>0.1120087441968695</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.04087528303990075</v>
+        <v>-0.02837737647530661</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>20.5040894134467</v>
+        <v>20.66430608747366</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>22.81556863897245</v>
+        <v>22.86670242864977</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16.3588292627313</v>
+        <v>16.05020948548446</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.321108544275678</v>
+        <v>8.337899001571111</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4954603456039783</v>
+        <v>0.4954637588943424</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4974397816476762</v>
+        <v>0.5117290817596774</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3675389157199876</v>
+        <v>0.3614999173841784</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2995416410937118</v>
+        <v>0.3072873225292774</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>12.78920835681033</v>
+        <v>12.41340304784998</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.587156764008729</v>
+        <v>6.591143642348506</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.554387446575463</v>
+        <v>4.024682772105607</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.587456970914915</v>
+        <v>3.94301795055754</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2885781121440296</v>
+        <v>0.2787632408249741</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1152065576272877</v>
+        <v>0.1106007916762829</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06426576740862205</v>
+        <v>0.07506564956341824</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1137131847161543</v>
+        <v>0.122376710149586</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>21.44201709438046</v>
+        <v>21.42425101918108</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>15.4244130323943</v>
+        <v>15.16989733497622</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12.33454902510274</v>
+        <v>12.96128719084705</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11.61726980538765</v>
+        <v>11.60653558222472</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5421152105431456</v>
+        <v>0.5411386167852917</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2902515329460325</v>
+        <v>0.285563944263154</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2505585004489749</v>
+        <v>0.263732803646703</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4211188703729387</v>
+        <v>0.4211096743305839</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>13.46445379462059</v>
+        <v>13.6837813320017</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>11.18907302204091</v>
+        <v>11.39630484189934</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9.261992349113331</v>
+        <v>9.302186905202555</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.592211743708297</v>
+        <v>4.520424285708833</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2936179084289411</v>
+        <v>0.3006474873760261</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2000225771130503</v>
+        <v>0.2064336908025747</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1807255497212824</v>
+        <v>0.1830654428355244</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1350681203816502</v>
+        <v>0.1299290441853905</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>18.29924242484364</v>
+        <v>18.41748662015708</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.84617234237788</v>
+        <v>16.08727722840612</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.97681622259935</v>
+        <v>14.23057861597547</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.974142531028809</v>
+        <v>9.070693418200712</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4219897655543887</v>
+        <v>0.4315469519430391</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3006302142021493</v>
+        <v>0.3075003490870151</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.288426743371327</v>
+        <v>0.2914976555746263</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2855778269684687</v>
+        <v>0.2892482620368019</v>
       </c>
     </row>
     <row r="19">
